--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/F7-F3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/F7-F3.xlsx
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.435388</v>
+        <v>1.253849</v>
       </c>
       <c r="H2">
-        <v>4.306164000000001</v>
+        <v>3.761547</v>
       </c>
       <c r="I2">
-        <v>0.09096710168874862</v>
+        <v>0.05000983498954911</v>
       </c>
       <c r="J2">
-        <v>0.09096710168874861</v>
+        <v>0.05000983498954913</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1663096666666667</v>
+        <v>1.414152666666667</v>
       </c>
       <c r="N2">
-        <v>0.498929</v>
+        <v>4.242458</v>
       </c>
       <c r="O2">
-        <v>0.002911546828163527</v>
+        <v>0.02004557878180869</v>
       </c>
       <c r="P2">
-        <v>0.002911546828163527</v>
+        <v>0.02004557878180869</v>
       </c>
       <c r="Q2">
-        <v>0.2387188998173334</v>
+        <v>1.773133906947333</v>
       </c>
       <c r="R2">
-        <v>2.148470098356</v>
+        <v>15.958205162526</v>
       </c>
       <c r="S2">
-        <v>0.0002648549763891051</v>
+        <v>0.00100247608714826</v>
       </c>
       <c r="T2">
-        <v>0.000264854976389105</v>
+        <v>0.00100247608714826</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.435388</v>
+        <v>1.253849</v>
       </c>
       <c r="H3">
-        <v>4.306164000000001</v>
+        <v>3.761547</v>
       </c>
       <c r="I3">
-        <v>0.09096710168874862</v>
+        <v>0.05000983498954911</v>
       </c>
       <c r="J3">
-        <v>0.09096710168874861</v>
+        <v>0.05000983498954913</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>39.90467966666667</v>
+        <v>39.90467966666666</v>
       </c>
       <c r="N3">
         <v>119.714039</v>
       </c>
       <c r="O3">
-        <v>0.6986024675597025</v>
+        <v>0.5656478390741919</v>
       </c>
       <c r="P3">
-        <v>0.6986024675597025</v>
+        <v>0.5656478390741919</v>
       </c>
       <c r="Q3">
-        <v>57.27869833737735</v>
+        <v>50.03444269537032</v>
       </c>
       <c r="R3">
-        <v>515.508285036396</v>
+        <v>450.309984258333</v>
       </c>
       <c r="S3">
-        <v>0.06354984170651416</v>
+        <v>0.02828795509429537</v>
       </c>
       <c r="T3">
-        <v>0.06354984170651415</v>
+        <v>0.02828795509429538</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,46 +667,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.435388</v>
+        <v>1.253849</v>
       </c>
       <c r="H4">
-        <v>4.306164000000001</v>
+        <v>3.761547</v>
       </c>
       <c r="I4">
-        <v>0.09096710168874862</v>
+        <v>0.05000983498954911</v>
       </c>
       <c r="J4">
-        <v>0.09096710168874861</v>
+        <v>0.05000983498954913</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.2704900000000001</v>
+        <v>0.904132</v>
       </c>
       <c r="N4">
-        <v>0.8114700000000001</v>
+        <v>2.712396</v>
       </c>
       <c r="O4">
-        <v>0.004735409055496589</v>
+        <v>0.01281604855144418</v>
       </c>
       <c r="P4">
-        <v>0.004735409055496589</v>
+        <v>0.01281604855144418</v>
       </c>
       <c r="Q4">
-        <v>0.3882581001200002</v>
+        <v>1.133645004068</v>
       </c>
       <c r="R4">
-        <v>3.494322901080001</v>
+        <v>10.202805036612</v>
       </c>
       <c r="S4">
-        <v>0.0004307664370891793</v>
+        <v>0.0006409284732757734</v>
       </c>
       <c r="T4">
-        <v>0.0004307664370891792</v>
+        <v>0.0006409284732757735</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.435388</v>
+        <v>1.253849</v>
       </c>
       <c r="H5">
-        <v>4.306164000000001</v>
+        <v>3.761547</v>
       </c>
       <c r="I5">
-        <v>0.09096710168874862</v>
+        <v>0.05000983498954911</v>
       </c>
       <c r="J5">
-        <v>0.09096710168874861</v>
+        <v>0.05000983498954913</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.402426666666667</v>
+        <v>1.326819</v>
       </c>
       <c r="N5">
-        <v>4.20728</v>
+        <v>3.980457</v>
       </c>
       <c r="O5">
-        <v>0.02455197581057795</v>
+        <v>0.0188076262348624</v>
       </c>
       <c r="P5">
-        <v>0.02455197581057795</v>
+        <v>0.0188076262348624</v>
       </c>
       <c r="Q5">
-        <v>2.013026408213334</v>
+        <v>1.663630676331</v>
       </c>
       <c r="R5">
-        <v>18.11723767392</v>
+        <v>14.972676086979</v>
       </c>
       <c r="S5">
-        <v>0.00223342208022054</v>
+        <v>0.0009405662845505837</v>
       </c>
       <c r="T5">
-        <v>0.00223342208022054</v>
+        <v>0.0009405662845505838</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.435388</v>
+        <v>1.253849</v>
       </c>
       <c r="H6">
-        <v>4.306164000000001</v>
+        <v>3.761547</v>
       </c>
       <c r="I6">
-        <v>0.09096710168874862</v>
+        <v>0.05000983498954911</v>
       </c>
       <c r="J6">
-        <v>0.09096710168874861</v>
+        <v>0.05000983498954913</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>14.88291266666666</v>
+        <v>26.35869833333334</v>
       </c>
       <c r="N6">
-        <v>44.64873799999999</v>
+        <v>79.07609500000001</v>
       </c>
       <c r="O6">
-        <v>0.2605518851487973</v>
+        <v>0.3736338915035314</v>
       </c>
       <c r="P6">
-        <v>0.2605518851487973</v>
+        <v>0.3736338915035313</v>
       </c>
       <c r="Q6">
-        <v>21.36275424678134</v>
+        <v>33.04982754655167</v>
       </c>
       <c r="R6">
-        <v>192.264788221032</v>
+        <v>297.448447918965</v>
       </c>
       <c r="S6">
-        <v>0.0237016498315258</v>
+        <v>0.0186853692605947</v>
       </c>
       <c r="T6">
-        <v>0.0237016498315258</v>
+        <v>0.0186853692605947</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.435388</v>
+        <v>1.253849</v>
       </c>
       <c r="H7">
-        <v>4.306164000000001</v>
+        <v>3.761547</v>
       </c>
       <c r="I7">
-        <v>0.09096710168874862</v>
+        <v>0.05000983498954911</v>
       </c>
       <c r="J7">
-        <v>0.09096710168874861</v>
+        <v>0.05000983498954913</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4939066666666667</v>
+        <v>0.6383796666666667</v>
       </c>
       <c r="N7">
-        <v>1.48172</v>
+        <v>1.915139</v>
       </c>
       <c r="O7">
-        <v>0.00864671559726226</v>
+        <v>0.009049015854161508</v>
       </c>
       <c r="P7">
-        <v>0.00864671559726226</v>
+        <v>0.009049015854161506</v>
       </c>
       <c r="Q7">
-        <v>0.7089477024533336</v>
+        <v>0.8004317066703334</v>
       </c>
       <c r="R7">
-        <v>6.380529322080002</v>
+        <v>7.203885360033</v>
       </c>
       <c r="S7">
-        <v>0.0007865666570098448</v>
+        <v>0.0004525397896844308</v>
       </c>
       <c r="T7">
-        <v>0.0007865666570098447</v>
+        <v>0.0004525397896844309</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,46 +915,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.999259333333333</v>
+        <v>5.017184333333334</v>
       </c>
       <c r="H8">
-        <v>11.997778</v>
+        <v>15.051553</v>
       </c>
       <c r="I8">
-        <v>0.2534513528432802</v>
+        <v>0.2001106677296477</v>
       </c>
       <c r="J8">
-        <v>0.2534513528432802</v>
+        <v>0.2001106677296477</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.1663096666666667</v>
+        <v>1.414152666666667</v>
       </c>
       <c r="N8">
-        <v>0.498929</v>
+        <v>4.242458</v>
       </c>
       <c r="O8">
-        <v>0.002911546828163527</v>
+        <v>0.02004557878180869</v>
       </c>
       <c r="P8">
-        <v>0.002911546828163527</v>
+        <v>0.02004557878180869</v>
       </c>
       <c r="Q8">
-        <v>0.6651154866402222</v>
+        <v>7.095064604141556</v>
       </c>
       <c r="R8">
-        <v>5.986039379762</v>
+        <v>63.855581437274</v>
       </c>
       <c r="S8">
-        <v>0.0007379354824646073</v>
+        <v>0.004011334155054995</v>
       </c>
       <c r="T8">
-        <v>0.0007379354824646073</v>
+        <v>0.004011334155054995</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.999259333333333</v>
+        <v>5.017184333333334</v>
       </c>
       <c r="H9">
-        <v>11.997778</v>
+        <v>15.051553</v>
       </c>
       <c r="I9">
-        <v>0.2534513528432802</v>
+        <v>0.2001106677296477</v>
       </c>
       <c r="J9">
-        <v>0.2534513528432802</v>
+        <v>0.2001106677296477</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>39.90467966666667</v>
+        <v>39.90467966666666</v>
       </c>
       <c r="N9">
         <v>119.714039</v>
       </c>
       <c r="O9">
-        <v>0.6986024675597025</v>
+        <v>0.5656478390741919</v>
       </c>
       <c r="P9">
-        <v>0.6986024675597025</v>
+        <v>0.5656478390741919</v>
       </c>
       <c r="Q9">
-        <v>159.5891626005935</v>
+        <v>200.2091336502852</v>
       </c>
       <c r="R9">
-        <v>1436.302463405342</v>
+        <v>1801.882202852567</v>
       </c>
       <c r="S9">
-        <v>0.1770617405026604</v>
+        <v>0.1131921667769688</v>
       </c>
       <c r="T9">
-        <v>0.1770617405026604</v>
+        <v>0.1131921667769688</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,46 +1039,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.999259333333333</v>
+        <v>5.017184333333334</v>
       </c>
       <c r="H10">
-        <v>11.997778</v>
+        <v>15.051553</v>
       </c>
       <c r="I10">
-        <v>0.2534513528432802</v>
+        <v>0.2001106677296477</v>
       </c>
       <c r="J10">
-        <v>0.2534513528432802</v>
+        <v>0.2001106677296477</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.2704900000000001</v>
+        <v>0.904132</v>
       </c>
       <c r="N10">
-        <v>0.8114700000000001</v>
+        <v>2.712396</v>
       </c>
       <c r="O10">
-        <v>0.004735409055496589</v>
+        <v>0.01281604855144418</v>
       </c>
       <c r="P10">
-        <v>0.004735409055496589</v>
+        <v>0.01281604855144418</v>
       </c>
       <c r="Q10">
-        <v>1.081759657073334</v>
+        <v>4.536196905665334</v>
       </c>
       <c r="R10">
-        <v>9.735836913660002</v>
+        <v>40.825772150988</v>
       </c>
       <c r="S10">
-        <v>0.00120019583138193</v>
+        <v>0.002564628033285078</v>
       </c>
       <c r="T10">
-        <v>0.00120019583138193</v>
+        <v>0.002564628033285078</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,16 +1101,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.999259333333333</v>
+        <v>5.017184333333334</v>
       </c>
       <c r="H11">
-        <v>11.997778</v>
+        <v>15.051553</v>
       </c>
       <c r="I11">
-        <v>0.2534513528432802</v>
+        <v>0.2001106677296477</v>
       </c>
       <c r="J11">
-        <v>0.2534513528432802</v>
+        <v>0.2001106677296477</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.402426666666667</v>
+        <v>1.326819</v>
       </c>
       <c r="N11">
-        <v>4.20728</v>
+        <v>3.980457</v>
       </c>
       <c r="O11">
-        <v>0.02455197581057795</v>
+        <v>0.0188076262348624</v>
       </c>
       <c r="P11">
-        <v>0.02455197581057795</v>
+        <v>0.0188076262348624</v>
       </c>
       <c r="Q11">
-        <v>5.608667935982222</v>
+        <v>6.656895499969</v>
       </c>
       <c r="R11">
-        <v>50.47801142384</v>
+        <v>59.912059499721</v>
       </c>
       <c r="S11">
-        <v>0.006222731484166471</v>
+        <v>0.003763606644267955</v>
       </c>
       <c r="T11">
-        <v>0.006222731484166471</v>
+        <v>0.003763606644267955</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.999259333333333</v>
+        <v>5.017184333333334</v>
       </c>
       <c r="H12">
-        <v>11.997778</v>
+        <v>15.051553</v>
       </c>
       <c r="I12">
-        <v>0.2534513528432802</v>
+        <v>0.2001106677296477</v>
       </c>
       <c r="J12">
-        <v>0.2534513528432802</v>
+        <v>0.2001106677296477</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>14.88291266666666</v>
+        <v>26.35869833333334</v>
       </c>
       <c r="N12">
-        <v>44.64873799999999</v>
+        <v>79.07609500000001</v>
       </c>
       <c r="O12">
-        <v>0.2605518851487973</v>
+        <v>0.3736338915035314</v>
       </c>
       <c r="P12">
-        <v>0.2605518851487973</v>
+        <v>0.3736338915035313</v>
       </c>
       <c r="Q12">
-        <v>59.52062738935155</v>
+        <v>132.2464483250595</v>
       </c>
       <c r="R12">
-        <v>535.685646504164</v>
+        <v>1190.218034925535</v>
       </c>
       <c r="S12">
-        <v>0.06603722777682965</v>
+        <v>0.0747681275151984</v>
       </c>
       <c r="T12">
-        <v>0.06603722777682965</v>
+        <v>0.07476812751519839</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,46 +1225,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.999259333333333</v>
+        <v>5.017184333333334</v>
       </c>
       <c r="H13">
-        <v>11.997778</v>
+        <v>15.051553</v>
       </c>
       <c r="I13">
-        <v>0.2534513528432802</v>
+        <v>0.2001106677296477</v>
       </c>
       <c r="J13">
-        <v>0.2534513528432802</v>
+        <v>0.2001106677296477</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4939066666666667</v>
+        <v>0.6383796666666667</v>
       </c>
       <c r="N13">
-        <v>1.48172</v>
+        <v>1.915139</v>
       </c>
       <c r="O13">
-        <v>0.00864671559726226</v>
+        <v>0.009049015854161508</v>
       </c>
       <c r="P13">
-        <v>0.00864671559726226</v>
+        <v>0.009049015854161506</v>
       </c>
       <c r="Q13">
-        <v>1.975260846462222</v>
+        <v>3.202868462318556</v>
       </c>
       <c r="R13">
-        <v>17.77734761816</v>
+        <v>28.825816160867</v>
       </c>
       <c r="S13">
-        <v>0.002191521765777211</v>
+        <v>0.001810804604872427</v>
       </c>
       <c r="T13">
-        <v>0.002191521765777211</v>
+        <v>0.001810804604872427</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,46 +1287,46 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.648891333333332</v>
+        <v>5.079645666666667</v>
       </c>
       <c r="H14">
-        <v>22.946674</v>
+        <v>15.238937</v>
       </c>
       <c r="I14">
-        <v>0.4847452227032141</v>
+        <v>0.2026019413784102</v>
       </c>
       <c r="J14">
-        <v>0.4847452227032141</v>
+        <v>0.2026019413784102</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M14">
-        <v>0.1663096666666667</v>
+        <v>1.414152666666667</v>
       </c>
       <c r="N14">
-        <v>0.498929</v>
+        <v>4.242458</v>
       </c>
       <c r="O14">
-        <v>0.002911546828163527</v>
+        <v>0.02004557878180869</v>
       </c>
       <c r="P14">
-        <v>0.002911546828163527</v>
+        <v>0.02004557878180869</v>
       </c>
       <c r="Q14">
-        <v>1.272084568016222</v>
+        <v>7.183394465238445</v>
       </c>
       <c r="R14">
-        <v>11.448761112146</v>
+        <v>64.650550187146</v>
       </c>
       <c r="S14">
-        <v>0.001411358415628965</v>
+        <v>0.004061273177248308</v>
       </c>
       <c r="T14">
-        <v>0.001411358415628966</v>
+        <v>0.004061273177248308</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.648891333333332</v>
+        <v>5.079645666666667</v>
       </c>
       <c r="H15">
-        <v>22.946674</v>
+        <v>15.238937</v>
       </c>
       <c r="I15">
-        <v>0.4847452227032141</v>
+        <v>0.2026019413784102</v>
       </c>
       <c r="J15">
-        <v>0.4847452227032141</v>
+        <v>0.2026019413784102</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,28 +1367,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>39.90467966666667</v>
+        <v>39.90467966666666</v>
       </c>
       <c r="N15">
         <v>119.714039</v>
       </c>
       <c r="O15">
-        <v>0.6986024675597025</v>
+        <v>0.5656478390741919</v>
       </c>
       <c r="P15">
-        <v>0.6986024675597025</v>
+        <v>0.5656478390741919</v>
       </c>
       <c r="Q15">
-        <v>305.2265584618095</v>
+        <v>202.7016331485048</v>
       </c>
       <c r="R15">
-        <v>2747.039026156286</v>
+        <v>1824.314698336543</v>
       </c>
       <c r="S15">
-        <v>0.3386442087182429</v>
+        <v>0.1146013503329338</v>
       </c>
       <c r="T15">
-        <v>0.3386442087182429</v>
+        <v>0.1146013503329338</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,46 +1411,46 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.648891333333332</v>
+        <v>5.079645666666667</v>
       </c>
       <c r="H16">
-        <v>22.946674</v>
+        <v>15.238937</v>
       </c>
       <c r="I16">
-        <v>0.4847452227032141</v>
+        <v>0.2026019413784102</v>
       </c>
       <c r="J16">
-        <v>0.4847452227032141</v>
+        <v>0.2026019413784102</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>0.2704900000000001</v>
+        <v>0.904132</v>
       </c>
       <c r="N16">
-        <v>0.8114700000000001</v>
+        <v>2.712396</v>
       </c>
       <c r="O16">
-        <v>0.004735409055496589</v>
+        <v>0.01281604855144418</v>
       </c>
       <c r="P16">
-        <v>0.004735409055496589</v>
+        <v>0.01281604855144418</v>
       </c>
       <c r="Q16">
-        <v>2.068948616753334</v>
+        <v>4.592670195894667</v>
       </c>
       <c r="R16">
-        <v>18.62053755078</v>
+        <v>41.334031763052</v>
       </c>
       <c r="S16">
-        <v>0.002295466917197511</v>
+        <v>0.002596556317322552</v>
       </c>
       <c r="T16">
-        <v>0.002295466917197511</v>
+        <v>0.002596556317322552</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.648891333333332</v>
+        <v>5.079645666666667</v>
       </c>
       <c r="H17">
-        <v>22.946674</v>
+        <v>15.238937</v>
       </c>
       <c r="I17">
-        <v>0.4847452227032141</v>
+        <v>0.2026019413784102</v>
       </c>
       <c r="J17">
-        <v>0.4847452227032141</v>
+        <v>0.2026019413784102</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.402426666666667</v>
+        <v>1.326819</v>
       </c>
       <c r="N17">
-        <v>4.20728</v>
+        <v>3.980457</v>
       </c>
       <c r="O17">
-        <v>0.02455197581057795</v>
+        <v>0.0188076262348624</v>
       </c>
       <c r="P17">
-        <v>0.02455197581057795</v>
+        <v>0.0188076262348624</v>
       </c>
       <c r="Q17">
-        <v>10.72700917630222</v>
+        <v>6.739770383801</v>
       </c>
       <c r="R17">
-        <v>96.54308258671999</v>
+        <v>60.657933454209</v>
       </c>
       <c r="S17">
-        <v>0.01190145298210253</v>
+        <v>0.003810461587902642</v>
       </c>
       <c r="T17">
-        <v>0.01190145298210253</v>
+        <v>0.003810461587902642</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.648891333333332</v>
+        <v>5.079645666666667</v>
       </c>
       <c r="H18">
-        <v>22.946674</v>
+        <v>15.238937</v>
       </c>
       <c r="I18">
-        <v>0.4847452227032141</v>
+        <v>0.2026019413784102</v>
       </c>
       <c r="J18">
-        <v>0.4847452227032141</v>
+        <v>0.2026019413784102</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>14.88291266666666</v>
+        <v>26.35869833333334</v>
       </c>
       <c r="N18">
-        <v>44.64873799999999</v>
+        <v>79.07609500000001</v>
       </c>
       <c r="O18">
-        <v>0.2605518851487973</v>
+        <v>0.3736338915035314</v>
       </c>
       <c r="P18">
-        <v>0.2605518851487973</v>
+        <v>0.3736338915035313</v>
       </c>
       <c r="Q18">
-        <v>113.8377817108235</v>
+        <v>133.8928477678906</v>
       </c>
       <c r="R18">
-        <v>1024.540035397412</v>
+        <v>1205.035629911015</v>
       </c>
       <c r="S18">
-        <v>0.126301281592196</v>
+        <v>0.07569895178338573</v>
       </c>
       <c r="T18">
-        <v>0.126301281592196</v>
+        <v>0.07569895178338573</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,46 +1597,46 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>7.648891333333332</v>
+        <v>5.079645666666667</v>
       </c>
       <c r="H19">
-        <v>22.946674</v>
+        <v>15.238937</v>
       </c>
       <c r="I19">
-        <v>0.4847452227032141</v>
+        <v>0.2026019413784102</v>
       </c>
       <c r="J19">
-        <v>0.4847452227032141</v>
+        <v>0.2026019413784102</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.4939066666666667</v>
+        <v>0.6383796666666667</v>
       </c>
       <c r="N19">
-        <v>1.48172</v>
+        <v>1.915139</v>
       </c>
       <c r="O19">
-        <v>0.00864671559726226</v>
+        <v>0.009049015854161508</v>
       </c>
       <c r="P19">
-        <v>0.00864671559726226</v>
+        <v>0.009049015854161506</v>
       </c>
       <c r="Q19">
-        <v>3.777838422142222</v>
+        <v>3.242742507471445</v>
       </c>
       <c r="R19">
-        <v>34.00054579928</v>
+        <v>29.184682567243</v>
       </c>
       <c r="S19">
-        <v>0.004191454077846248</v>
+        <v>0.001833348179617134</v>
       </c>
       <c r="T19">
-        <v>0.004191454077846249</v>
+        <v>0.001833348179617134</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,46 +1659,46 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>2.695660333333333</v>
+        <v>13.72136933333333</v>
       </c>
       <c r="H20">
-        <v>8.086981</v>
+        <v>41.164108</v>
       </c>
       <c r="I20">
-        <v>0.1708363227647572</v>
+        <v>0.547277555902393</v>
       </c>
       <c r="J20">
-        <v>0.1708363227647572</v>
+        <v>0.547277555902393</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1663096666666667</v>
+        <v>1.414152666666667</v>
       </c>
       <c r="N20">
-        <v>0.498929</v>
+        <v>4.242458</v>
       </c>
       <c r="O20">
-        <v>0.002911546828163527</v>
+        <v>0.02004557878180869</v>
       </c>
       <c r="P20">
-        <v>0.002911546828163527</v>
+        <v>0.02004557878180869</v>
       </c>
       <c r="Q20">
-        <v>0.4483143714832222</v>
+        <v>19.40411103305156</v>
       </c>
       <c r="R20">
-        <v>4.034829343349</v>
+        <v>174.636999297464</v>
       </c>
       <c r="S20">
-        <v>0.0004973979536808493</v>
+        <v>0.01097049536235713</v>
       </c>
       <c r="T20">
-        <v>0.0004973979536808493</v>
+        <v>0.01097049536235713</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>2.695660333333333</v>
+        <v>13.72136933333333</v>
       </c>
       <c r="H21">
-        <v>8.086981</v>
+        <v>41.164108</v>
       </c>
       <c r="I21">
-        <v>0.1708363227647572</v>
+        <v>0.547277555902393</v>
       </c>
       <c r="J21">
-        <v>0.1708363227647572</v>
+        <v>0.547277555902393</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1739,28 +1739,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>39.90467966666667</v>
+        <v>39.90467966666666</v>
       </c>
       <c r="N21">
         <v>119.714039</v>
       </c>
       <c r="O21">
-        <v>0.6986024675597025</v>
+        <v>0.5656478390741919</v>
       </c>
       <c r="P21">
-        <v>0.6986024675597025</v>
+        <v>0.5656478390741919</v>
       </c>
       <c r="Q21">
-        <v>107.5694620918065</v>
+        <v>547.5468478346901</v>
       </c>
       <c r="R21">
-        <v>968.1251588262589</v>
+        <v>4927.921630512211</v>
       </c>
       <c r="S21">
-        <v>0.1193466766322851</v>
+        <v>0.3095663668699939</v>
       </c>
       <c r="T21">
-        <v>0.1193466766322851</v>
+        <v>0.3095663668699939</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,46 +1783,46 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.695660333333333</v>
+        <v>13.72136933333333</v>
       </c>
       <c r="H22">
-        <v>8.086981</v>
+        <v>41.164108</v>
       </c>
       <c r="I22">
-        <v>0.1708363227647572</v>
+        <v>0.547277555902393</v>
       </c>
       <c r="J22">
-        <v>0.1708363227647572</v>
+        <v>0.547277555902393</v>
       </c>
       <c r="K22">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L22">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M22">
-        <v>0.2704900000000001</v>
+        <v>0.904132</v>
       </c>
       <c r="N22">
-        <v>0.8114700000000001</v>
+        <v>2.712396</v>
       </c>
       <c r="O22">
-        <v>0.004735409055496589</v>
+        <v>0.01281604855144418</v>
       </c>
       <c r="P22">
-        <v>0.004735409055496589</v>
+        <v>0.01281604855144418</v>
       </c>
       <c r="Q22">
-        <v>0.7291491635633335</v>
+        <v>12.40592909808533</v>
       </c>
       <c r="R22">
-        <v>6.562342472070001</v>
+        <v>111.653361882768</v>
       </c>
       <c r="S22">
-        <v>0.0008089798698279692</v>
+        <v>0.007013935727560775</v>
       </c>
       <c r="T22">
-        <v>0.000808979869827969</v>
+        <v>0.007013935727560774</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.695660333333333</v>
+        <v>13.72136933333333</v>
       </c>
       <c r="H23">
-        <v>8.086981</v>
+        <v>41.164108</v>
       </c>
       <c r="I23">
-        <v>0.1708363227647572</v>
+        <v>0.547277555902393</v>
       </c>
       <c r="J23">
-        <v>0.1708363227647572</v>
+        <v>0.547277555902393</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.402426666666667</v>
+        <v>1.326819</v>
       </c>
       <c r="N23">
-        <v>4.20728</v>
+        <v>3.980457</v>
       </c>
       <c r="O23">
-        <v>0.02455197581057795</v>
+        <v>0.0188076262348624</v>
       </c>
       <c r="P23">
-        <v>0.02455197581057795</v>
+        <v>0.0188076262348624</v>
       </c>
       <c r="Q23">
-        <v>3.780465935742222</v>
+        <v>18.205773537484</v>
       </c>
       <c r="R23">
-        <v>34.02419342168</v>
+        <v>163.851961837356</v>
       </c>
       <c r="S23">
-        <v>0.004194369264088404</v>
+        <v>0.01029299171814122</v>
       </c>
       <c r="T23">
-        <v>0.004194369264088404</v>
+        <v>0.01029299171814122</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.695660333333333</v>
+        <v>13.72136933333333</v>
       </c>
       <c r="H24">
-        <v>8.086981</v>
+        <v>41.164108</v>
       </c>
       <c r="I24">
-        <v>0.1708363227647572</v>
+        <v>0.547277555902393</v>
       </c>
       <c r="J24">
-        <v>0.1708363227647572</v>
+        <v>0.547277555902393</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>14.88291266666666</v>
+        <v>26.35869833333334</v>
       </c>
       <c r="N24">
-        <v>44.64873799999999</v>
+        <v>79.07609500000001</v>
       </c>
       <c r="O24">
-        <v>0.2605518851487973</v>
+        <v>0.3736338915035314</v>
       </c>
       <c r="P24">
-        <v>0.2605518851487973</v>
+        <v>0.3736338915035313</v>
       </c>
       <c r="Q24">
-        <v>40.11927731999754</v>
+        <v>361.6774349775845</v>
       </c>
       <c r="R24">
-        <v>361.0734958799779</v>
+        <v>3255.096914798261</v>
       </c>
       <c r="S24">
-        <v>0.04451172594824588</v>
+        <v>0.2044814429443526</v>
       </c>
       <c r="T24">
-        <v>0.04451172594824588</v>
+        <v>0.2044814429443525</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.695660333333333</v>
+        <v>13.72136933333333</v>
       </c>
       <c r="H25">
-        <v>8.086981</v>
+        <v>41.164108</v>
       </c>
       <c r="I25">
-        <v>0.1708363227647572</v>
+        <v>0.547277555902393</v>
       </c>
       <c r="J25">
-        <v>0.1708363227647572</v>
+        <v>0.547277555902393</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4939066666666667</v>
+        <v>0.6383796666666667</v>
       </c>
       <c r="N25">
-        <v>1.48172</v>
+        <v>1.915139</v>
       </c>
       <c r="O25">
-        <v>0.00864671559726226</v>
+        <v>0.009049015854161508</v>
       </c>
       <c r="P25">
-        <v>0.00864671559726226</v>
+        <v>0.009049015854161506</v>
       </c>
       <c r="Q25">
-        <v>1.331404609702222</v>
+        <v>8.759443181223556</v>
       </c>
       <c r="R25">
-        <v>11.98264148732</v>
+        <v>78.834988631012</v>
       </c>
       <c r="S25">
-        <v>0.001477173096628955</v>
+        <v>0.004952323279987516</v>
       </c>
       <c r="T25">
-        <v>0.001477173096628955</v>
+        <v>0.004952323279987514</v>
       </c>
     </row>
   </sheetData>
